--- a/Data Files/insumosVida3.xlsx
+++ b/Data Files/insumosVida3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitBanorte\AutomaAdm-APIs_SF_Mulesoft_Portal_APF\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B60632-2F96-4187-B41A-839230277E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBD33F9-612D-430E-9A14-5F2D562BD654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D93C2285-B407-40EF-9706-4982E6D696BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="16" xr2:uid="{D93C2285-B407-40EF-9706-4982E6D696BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Regresion Vida 12082024 (2)" sheetId="20" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="493">
   <si>
     <t>CURP</t>
   </si>
@@ -2172,13 +2172,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EEA20D-B98E-47A8-87EC-F6E3807A6A2D}">
   <dimension ref="A1:AX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>480</v>
       </c>
@@ -2495,33 +2495,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72497DD-1FC9-4157-96C1-1C51F2AABB9D}">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:AQ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.54296875" customWidth="1"/>
-    <col min="42" max="42" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.5703125" customWidth="1"/>
+    <col min="42" max="42" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -3718,19 +3718,19 @@
       <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.453125" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>477</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>478</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>479</v>
       </c>
@@ -4302,7 +4302,7 @@
       <c r="AY4" s="3"/>
       <c r="AZ4" s="3"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>480</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>481</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>482</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>483</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>484</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>57460</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>485</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>486</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>487</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>488</v>
       </c>
@@ -5476,9 +5476,9 @@
       <selection activeCell="AA3" sqref="AA3:AB4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>259</v>
       </c>
@@ -5764,7 +5764,7 @@
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>260</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>262</v>
       </c>
@@ -6101,19 +6101,19 @@
       <selection activeCell="H2" sqref="H2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>321</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>329</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>333</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>321</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>58360</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>340</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>344</v>
       </c>
@@ -7183,7 +7183,7 @@
       <c r="AR7" s="2"/>
       <c r="AS7" s="5"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>417</v>
       </c>
@@ -7323,7 +7323,7 @@
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>421</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>425</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>429</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>58360</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>433</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>437</v>
       </c>
@@ -8134,9 +8134,9 @@
       <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>321</v>
       </c>
@@ -8446,7 +8446,7 @@
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>329</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>333</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>321</v>
       </c>
@@ -8983,9 +8983,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>425</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>429</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>58360</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>433</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>437</v>
       </c>
@@ -9771,27 +9771,27 @@
       <selection activeCell="AA3" sqref="AA3:AB6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="11" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="11" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>78</v>
       </c>
@@ -10235,7 +10235,7 @@
       <c r="AY3" s="16"/>
       <c r="AZ3" s="16"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>259</v>
       </c>
@@ -10363,7 +10363,7 @@
       <c r="AY4" s="16"/>
       <c r="AZ4" s="16"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>260</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>261</v>
       </c>
@@ -10664,34 +10664,34 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE776103-4059-409F-BBC0-65735330C997}">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10822,66 +10822,66 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>78</v>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="B2">
-        <v>5518975987</v>
-      </c>
-      <c r="C2" s="15" t="s">
+        <v>5570662434</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="E2">
-        <v>546</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
         <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>89</v>
+        <v>168</v>
+      </c>
+      <c r="K2">
+        <v>57460</v>
       </c>
       <c r="L2">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="M2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2" t="s">
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="S2">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="T2">
-        <v>123</v>
+        <v>565</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>46</v>
@@ -10889,22 +10889,22 @@
       <c r="V2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="W2" t="s">
-        <v>50</v>
+      <c r="W2" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="X2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="Z2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="1">
         <v>20</v>
       </c>
       <c r="AC2" t="s">
@@ -10913,8 +10913,8 @@
       <c r="AD2" t="s">
         <v>87</v>
       </c>
-      <c r="AE2" s="5" t="s">
-        <v>88</v>
+      <c r="AE2">
+        <v>57460</v>
       </c>
       <c r="AF2" t="s">
         <v>87</v>
@@ -10946,152 +10946,17 @@
       <c r="AO2" t="s">
         <v>87</v>
       </c>
-      <c r="AP2" s="5" t="s">
-        <v>88</v>
+      <c r="AP2">
+        <v>57460</v>
       </c>
       <c r="AQ2">
-        <v>1600000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3">
-        <v>5518975987</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3">
-        <v>546</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3">
-        <v>4000000</v>
-      </c>
-      <c r="M3">
-        <v>40</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="S3">
-        <v>72</v>
-      </c>
-      <c r="T3">
-        <v>123</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z3">
-        <v>23</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>20</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH3">
         <v>8000000</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ3">
-        <v>1600000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BEA6F2A3-A9EF-450A-998C-E0916E908DA3}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{2115927B-D882-4F9A-BE48-30371D064D26}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11103,14 +10968,14 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" style="5"/>
-    <col min="30" max="30" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="5"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -11232,7 +11097,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>291</v>
       </c>
@@ -11354,7 +11219,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -11487,15 +11352,15 @@
       <selection activeCell="I10" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="17" max="17" width="10.90625" style="5"/>
-    <col min="32" max="32" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="5"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -11611,7 +11476,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>291</v>
       </c>
@@ -11727,7 +11592,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -11854,29 +11719,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.54296875" customWidth="1"/>
-    <col min="40" max="40" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12001,7 +11866,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -12126,7 +11991,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -12251,7 +12116,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -12393,29 +12258,29 @@
       <selection activeCell="R1" activeCellId="1" sqref="Q1:Q1048576 R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.54296875" customWidth="1"/>
-    <col min="40" max="40" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12540,7 +12405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -12665,7 +12530,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -12790,7 +12655,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -12915,7 +12780,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -13040,7 +12905,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -13165,7 +13030,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -13290,7 +13155,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -13415,7 +13280,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -13557,15 +13422,15 @@
       <selection activeCell="R1" activeCellId="1" sqref="Q1:Q1048576 R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="17" max="17" width="10.90625" style="5"/>
-    <col min="32" max="32" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="5"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -13681,7 +13546,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>291</v>
       </c>
@@ -13797,7 +13662,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -13905,7 +13770,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -14013,7 +13878,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -14127,7 +13992,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>295</v>
       </c>
@@ -14233,7 +14098,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -14341,7 +14206,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -14457,7 +14322,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -14563,7 +14428,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -14699,9 +14564,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14853,7 +14718,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>480</v>
       </c>
@@ -15005,7 +14870,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>481</v>
       </c>
@@ -15127,7 +14992,7 @@
       <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>482</v>
       </c>
@@ -15269,15 +15134,15 @@
       <selection activeCell="R1" activeCellId="1" sqref="Q1:Q1048576 R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="17" max="17" width="10.90625" style="5"/>
-    <col min="32" max="32" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="5"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -15393,7 +15258,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>291</v>
       </c>
@@ -15509,7 +15374,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -15617,7 +15482,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -15725,7 +15590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -15839,7 +15704,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>295</v>
       </c>
@@ -15945,7 +15810,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -16053,7 +15918,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -16169,7 +16034,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -16275,7 +16140,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -16411,29 +16276,29 @@
       <selection activeCell="Q4" sqref="Q4:R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.54296875" customWidth="1"/>
-    <col min="42" max="42" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.5703125" customWidth="1"/>
+    <col min="42" max="42" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16564,7 +16429,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -16695,7 +16560,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -16826,7 +16691,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -16957,7 +16822,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -17088,7 +16953,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -17219,7 +17084,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -17350,7 +17215,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -17481,7 +17346,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -17629,15 +17494,15 @@
       <selection activeCell="Q3" sqref="Q3:R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="19" max="19" width="10.81640625" style="5"/>
-    <col min="34" max="34" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="5"/>
+    <col min="34" max="34" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -17759,7 +17624,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>291</v>
       </c>
@@ -17881,7 +17746,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -17995,7 +17860,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>293</v>
       </c>
@@ -18109,7 +17974,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -18223,7 +18088,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -18343,7 +18208,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>295</v>
       </c>
@@ -18455,7 +18320,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>296</v>
       </c>
@@ -18569,7 +18434,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>297</v>
       </c>
@@ -18691,7 +18556,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>298</v>
       </c>
@@ -18803,7 +18668,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>299</v>
       </c>

--- a/Data Files/insumosVida3.xlsx
+++ b/Data Files/insumosVida3.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitBanorte\AutomaAdm-APIs_SF_Mulesoft_Portal_APF\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D539DA4-7B8B-4409-8826-51611C3EA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE48334-9A71-4943-91C2-B48415A1C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="11" activeTab="17" xr2:uid="{D93C2285-B407-40EF-9706-4982E6D696BA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="12" activeTab="18" xr2:uid="{D93C2285-B407-40EF-9706-4982E6D696BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Regresion Vida 12082024 (2)" sheetId="20" r:id="rId1"/>
-    <sheet name="Autos 12082024 (2)" sheetId="19" r:id="rId2"/>
-    <sheet name="CAHA 12082024 (2)" sheetId="17" r:id="rId3"/>
-    <sheet name="CAHA 12082024" sheetId="16" r:id="rId4"/>
-    <sheet name="Autos 12082024" sheetId="15" r:id="rId5"/>
-    <sheet name="Regresion Vida 12082024" sheetId="14" r:id="rId6"/>
-    <sheet name="Autos MS PRE" sheetId="11" r:id="rId7"/>
-    <sheet name="CAHA MS PRE" sheetId="10" r:id="rId8"/>
-    <sheet name="Autos MS" sheetId="7" r:id="rId9"/>
-    <sheet name="CAHA MS" sheetId="6" r:id="rId10"/>
-    <sheet name="Vida MS" sheetId="5" r:id="rId11"/>
-    <sheet name="Prueba regresion" sheetId="8" r:id="rId12"/>
-    <sheet name="Regresion 2 Vida" sheetId="9" r:id="rId13"/>
-    <sheet name="Regresion 3 Vida QA" sheetId="12" r:id="rId14"/>
-    <sheet name="Regresion 3 Vida PRE" sheetId="13" r:id="rId15"/>
-    <sheet name="Vida" sheetId="1" r:id="rId16"/>
-    <sheet name="CAHA" sheetId="2" r:id="rId17"/>
-    <sheet name="Autos" sheetId="3" r:id="rId18"/>
+    <sheet name="Autos (2)" sheetId="21" r:id="rId1"/>
+    <sheet name="Regresion Vida 12082024 (2)" sheetId="20" r:id="rId2"/>
+    <sheet name="Autos 12082024 (2)" sheetId="19" r:id="rId3"/>
+    <sheet name="CAHA 12082024 (2)" sheetId="17" r:id="rId4"/>
+    <sheet name="CAHA 12082024" sheetId="16" r:id="rId5"/>
+    <sheet name="Autos 12082024" sheetId="15" r:id="rId6"/>
+    <sheet name="Regresion Vida 12082024" sheetId="14" r:id="rId7"/>
+    <sheet name="Autos MS PRE" sheetId="11" r:id="rId8"/>
+    <sheet name="CAHA MS PRE" sheetId="10" r:id="rId9"/>
+    <sheet name="Autos MS" sheetId="7" r:id="rId10"/>
+    <sheet name="CAHA MS" sheetId="6" r:id="rId11"/>
+    <sheet name="Vida MS" sheetId="5" r:id="rId12"/>
+    <sheet name="Prueba regresion" sheetId="8" r:id="rId13"/>
+    <sheet name="Regresion 2 Vida" sheetId="9" r:id="rId14"/>
+    <sheet name="Regresion 3 Vida QA" sheetId="12" r:id="rId15"/>
+    <sheet name="Regresion 3 Vida PRE" sheetId="13" r:id="rId16"/>
+    <sheet name="Vida" sheetId="1" r:id="rId17"/>
+    <sheet name="CAHA" sheetId="2" r:id="rId18"/>
+    <sheet name="Autos" sheetId="3" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,6 +52,42 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>JRobertoMV</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{633E94BE-A9BE-499B-9BDE-09CFDCA273E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JRobertoMV:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Si el campo es 
+-TRUE se toman los datos del contratante, 
+-False se agragan los datos de conductor, es decir los 5 campos de la derecha</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>JRobertoMV</author>
@@ -86,7 +123,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>JRobertoMV</author>
@@ -122,7 +159,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>JRobertoMV</author>
@@ -158,7 +195,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>JRobertoMV</author>
@@ -194,7 +231,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>JRobertoMV</author>
@@ -231,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4011" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4103" uniqueCount="482">
   <si>
     <t>CURP</t>
   </si>
@@ -2127,329 +2164,1579 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EEA20D-B98E-47A8-87EC-F6E3807A6A2D}">
-  <dimension ref="A1:AX2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18055AE4-C037-4204-A328-35A60A8A53B8}">
+  <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="V1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" style="5"/>
+    <col min="30" max="30" width="12.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="W1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="X1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>192</v>
+      <c r="AA1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5586768965</v>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2">
+        <v>5583270816</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E2" s="1">
-        <v>300</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2">
+        <v>220</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="1">
+      <c r="O2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="5">
+        <v>57460</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T2">
+        <v>123</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF2" s="4">
+      <c r="X2">
         <v>12</v>
       </c>
-      <c r="AG2" s="4">
-        <v>6.5341235123412301E+17</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>26</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>224</v>
+      <c r="Y2">
+        <v>123</v>
+      </c>
+      <c r="Z2">
+        <v>28</v>
+      </c>
+      <c r="AA2">
+        <v>2004</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG2">
+        <v>89830</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AO2">
-        <v>50</v>
-      </c>
-      <c r="AP2">
-        <v>2</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AR2">
-        <v>229</v>
-      </c>
-      <c r="AS2">
-        <v>5</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX2">
-        <v>44450</v>
+        <v>134</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{85B355B6-FEC8-4621-9EC1-1E18CDDBA486}"/>
-    <hyperlink ref="N2" r:id="rId2" xr:uid="{3731E579-8C44-4A6A-9802-27087A61AE4D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D574D87-F605-4C1E-B8AA-171D90DF25AC}">
+  <dimension ref="A1:AN11"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AN7" sqref="A7:AN7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" style="5"/>
+    <col min="34" max="34" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2">
+        <v>5518975987</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2">
+        <v>123</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z2">
+        <v>26</v>
+      </c>
+      <c r="AA2">
+        <v>2010</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG2">
+        <v>275491</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>15</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>15</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3">
+        <v>5518975987</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="1">
+        <v>123</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z3">
+        <v>26</v>
+      </c>
+      <c r="AA3">
+        <v>2014</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG3">
+        <v>316966</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4">
+        <v>5518975987</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4">
+        <v>123</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z4">
+        <v>26</v>
+      </c>
+      <c r="AA4">
+        <v>2022</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG4">
+        <v>413910</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5">
+        <v>5518975987</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5">
+        <v>123</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z5">
+        <v>26</v>
+      </c>
+      <c r="AA5">
+        <v>2017</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG5">
+        <v>152000</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>15</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6">
+        <v>5570662434</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6">
+        <v>219</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="5">
+        <v>57460</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6">
+        <v>123</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6">
+        <v>12</v>
+      </c>
+      <c r="Y6">
+        <v>123</v>
+      </c>
+      <c r="Z6">
+        <v>27</v>
+      </c>
+      <c r="AA6">
+        <v>2023</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG6">
+        <v>781107</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7">
+        <v>5583270816</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7">
+        <v>220</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="5">
+        <v>57460</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T7">
+        <v>123</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7">
+        <v>12</v>
+      </c>
+      <c r="Y7">
+        <v>123</v>
+      </c>
+      <c r="Z7">
+        <v>28</v>
+      </c>
+      <c r="AA7">
+        <v>2004</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG7">
+        <v>89830</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8">
+        <v>5583270817</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8">
+        <v>239</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="5">
+        <v>57460</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8">
+        <v>123</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8">
+        <v>12</v>
+      </c>
+      <c r="Y8">
+        <v>123</v>
+      </c>
+      <c r="Z8">
+        <v>26</v>
+      </c>
+      <c r="AA8">
+        <v>2023</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG8">
+        <v>822483</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9">
+        <v>5570662439</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9">
+        <v>249</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" s="5">
+        <v>57460</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9">
+        <v>123</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9">
+        <v>11</v>
+      </c>
+      <c r="Y9">
+        <v>321</v>
+      </c>
+      <c r="Z9">
+        <v>27</v>
+      </c>
+      <c r="AA9">
+        <v>2010</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>255700</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN9" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10">
+        <v>5583270814</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10">
+        <v>219</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="5">
+        <v>57460</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T10">
+        <v>321</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10">
+        <v>12</v>
+      </c>
+      <c r="Y10">
+        <v>321</v>
+      </c>
+      <c r="Z10">
+        <v>27</v>
+      </c>
+      <c r="AA10">
+        <v>2004</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG10">
+        <v>89830</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN10" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11">
+        <v>5583270814</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11">
+        <v>219</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="5">
+        <v>57460</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T11">
+        <v>123</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11">
+        <v>12</v>
+      </c>
+      <c r="Y11">
+        <v>123</v>
+      </c>
+      <c r="Z11">
+        <v>27</v>
+      </c>
+      <c r="AA11">
+        <v>2006</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG11">
+        <v>360220</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN11" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{FA5D5C14-C573-469A-90B7-45EFDD35158B}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00296B02-7E7C-47DF-81A2-A8F24AB17A68}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{5DE82CC5-3E24-484E-B99E-A186F0A35C93}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{F5784DEC-1E4F-48DD-8C9A-81731B347BA2}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{156DD22C-E9F2-4C26-BF29-9E7E0B506A96}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72497DD-1FC9-4157-96C1-1C51F2AABB9D}">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
@@ -2457,29 +3744,29 @@
       <selection activeCell="A2" sqref="A2:AQ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.5703125" customWidth="1"/>
-    <col min="42" max="42" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.54296875" customWidth="1"/>
+    <col min="42" max="42" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2610,7 +3897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -2741,7 +4028,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -2872,7 +4159,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -3003,7 +4290,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -3134,7 +4421,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -3265,7 +4552,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -3396,7 +4683,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -3527,7 +4814,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -3668,7 +4955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC7F882-B6D6-439A-AEF9-76FE80AC13D0}">
   <dimension ref="A1:AZ13"/>
   <sheetViews>
@@ -3676,19 +4963,19 @@
       <selection activeCell="A2" sqref="A2:AZ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.453125" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3846,7 +5133,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>466</v>
       </c>
@@ -4004,7 +5291,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -4132,7 +5419,7 @@
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>468</v>
       </c>
@@ -4260,7 +5547,7 @@
       <c r="AY4" s="3"/>
       <c r="AZ4" s="3"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>469</v>
       </c>
@@ -4415,7 +5702,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>470</v>
       </c>
@@ -4528,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>471</v>
       </c>
@@ -4641,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>472</v>
       </c>
@@ -4754,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>473</v>
       </c>
@@ -4906,7 +6193,7 @@
         <v>57460</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>474</v>
       </c>
@@ -5019,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>475</v>
       </c>
@@ -5132,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>476</v>
       </c>
@@ -5290,7 +6577,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>477</v>
       </c>
@@ -5426,7 +6713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9683A8EA-B40D-41F2-92A1-942AB5C18C13}">
   <dimension ref="A1:AZ4"/>
   <sheetViews>
@@ -5434,9 +6721,9 @@
       <selection activeCell="AA3" sqref="AA3:AB4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5594,7 +6881,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>252</v>
       </c>
@@ -5722,7 +7009,7 @@
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>253</v>
       </c>
@@ -5877,7 +7164,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>254</v>
       </c>
@@ -6051,7 +7338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB5C035-727F-4C2F-948D-405456B14947}">
   <dimension ref="A1:BD13"/>
   <sheetViews>
@@ -6059,19 +7346,19 @@
       <selection activeCell="H2" sqref="H2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6241,7 +7528,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>310</v>
       </c>
@@ -6381,7 +7668,7 @@
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>318</v>
       </c>
@@ -6551,7 +7838,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>322</v>
       </c>
@@ -6721,7 +8008,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>310</v>
       </c>
@@ -6891,7 +8178,7 @@
         <v>58360</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>329</v>
       </c>
@@ -7013,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>333</v>
       </c>
@@ -7141,7 +8428,7 @@
       <c r="AR7" s="2"/>
       <c r="AS7" s="5"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>406</v>
       </c>
@@ -7281,7 +8568,7 @@
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>410</v>
       </c>
@@ -7451,7 +8738,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>414</v>
       </c>
@@ -7621,7 +8908,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>418</v>
       </c>
@@ -7791,7 +9078,7 @@
         <v>58360</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>422</v>
       </c>
@@ -7913,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>426</v>
       </c>
@@ -8084,7 +9371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960B1BB5-DEB2-4C29-AA32-0C52508693B8}">
   <dimension ref="A1:BD5"/>
   <sheetViews>
@@ -8092,9 +9379,9 @@
       <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8264,7 +9551,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>310</v>
       </c>
@@ -8404,7 +9691,7 @@
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>318</v>
       </c>
@@ -8574,7 +9861,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>322</v>
       </c>
@@ -8744,7 +10031,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>310</v>
       </c>
@@ -8933,7 +10220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227C21FF-7D45-4B08-9797-0D0AF546C43A}">
   <dimension ref="A1:BD5"/>
   <sheetViews>
@@ -8941,9 +10228,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9113,7 +10400,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>414</v>
       </c>
@@ -9283,7 +10570,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>418</v>
       </c>
@@ -9453,7 +10740,7 @@
         <v>58360</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>422</v>
       </c>
@@ -9575,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>426</v>
       </c>
@@ -9721,7 +11008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DE6A71-EDA3-43EC-9D6B-B3E4D10E3248}">
   <dimension ref="A1:AZ4"/>
   <sheetViews>
@@ -9729,27 +11016,27 @@
       <selection activeCell="A6" activeCellId="1" sqref="A5:XFD5 A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="11" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="11" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -9907,7 +11194,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>466</v>
       </c>
@@ -10065,7 +11352,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -10193,7 +11480,7 @@
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>468</v>
       </c>
@@ -10336,7 +11623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE776103-4059-409F-BBC0-65735330C997}">
   <dimension ref="A1:AQ4"/>
   <sheetViews>
@@ -10344,28 +11631,28 @@
       <selection activeCell="A5" sqref="A5:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10496,7 +11783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -10627,7 +11914,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -10758,7 +12045,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -10899,22 +12186,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667FA8E4-69A8-4049-A63A-99DFF7AC13E3}">
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="V5" sqref="A5:XFD7"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:AN5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="5"/>
-    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" style="5"/>
+    <col min="30" max="30" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -11036,15 +12323,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>282</v>
       </c>
       <c r="B2">
-        <v>5518975987</v>
+        <v>5616978120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>50</v>
@@ -11158,15 +12445,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>283</v>
       </c>
       <c r="B3">
-        <v>5518975987</v>
+        <v>5616978120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>83</v>
@@ -11272,15 +12559,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>284</v>
       </c>
       <c r="B4">
-        <v>5518975987</v>
+        <v>5616978120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>83</v>
@@ -11386,18 +12673,455 @@
         <v>122</v>
       </c>
     </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5">
+        <v>5583270816</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5">
+        <v>220</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="5">
+        <v>57460</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T5">
+        <v>123</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5">
+        <v>12</v>
+      </c>
+      <c r="Y5">
+        <v>123</v>
+      </c>
+      <c r="Z5">
+        <v>28</v>
+      </c>
+      <c r="AA5">
+        <v>2004</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG5">
+        <v>89830</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8AB28AE3-0820-477B-861E-E29CB7FEE04E}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{95870313-29B4-4488-B665-2A6EF2F8BC56}"/>
+    <hyperlink ref="C3:C4" r:id="rId3" display="jrmendozav@desarrollo-ultrasist.com.mx" xr:uid="{E177B960-C6CB-476F-B558-348FF7CE67E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EEA20D-B98E-47A8-87EC-F6E3807A6A2D}">
+  <dimension ref="A1:AX2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5586768965</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="1">
+        <v>300</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1">
+        <v>50</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>6.5341235123412301E+17</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO2">
+        <v>50</v>
+      </c>
+      <c r="AP2">
+        <v>2</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR2">
+        <v>229</v>
+      </c>
+      <c r="AS2">
+        <v>5</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX2">
+        <v>44450</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{85B355B6-FEC8-4621-9EC1-1E18CDDBA486}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{3731E579-8C44-4A6A-9802-27087A61AE4D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD27F498-610C-4C47-AA87-8D38EB0CE68C}">
   <dimension ref="A1:AL3"/>
   <sheetViews>
@@ -11405,15 +13129,15 @@
       <selection activeCell="I10" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="5"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="5"/>
+    <col min="32" max="32" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -11529,7 +13253,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -11645,7 +13369,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>283</v>
       </c>
@@ -11764,7 +13488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B0B826-EE4A-4D58-96F6-D3C031D7269E}">
   <dimension ref="A1:AO4"/>
   <sheetViews>
@@ -11772,29 +13496,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" customWidth="1"/>
-    <col min="40" max="40" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.54296875" customWidth="1"/>
+    <col min="40" max="40" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11919,7 +13643,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -12044,7 +13768,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -12169,7 +13893,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -12303,7 +14027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C53E1DF-6B1D-4224-A37F-D2A808FDFDC2}">
   <dimension ref="A1:AO9"/>
   <sheetViews>
@@ -12311,29 +14035,29 @@
       <selection activeCell="R1" activeCellId="1" sqref="Q1:Q1048576 R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" customWidth="1"/>
-    <col min="40" max="40" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.54296875" customWidth="1"/>
+    <col min="40" max="40" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12458,7 +14182,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -12583,7 +14307,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -12708,7 +14432,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -12833,7 +14557,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -12958,7 +14682,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -13083,7 +14807,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -13208,7 +14932,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -13333,7 +15057,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -13467,7 +15191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60F0FE9-AAEC-4064-8CA0-35DD7874CCE3}">
   <dimension ref="A1:AL10"/>
   <sheetViews>
@@ -13475,15 +15199,15 @@
       <selection activeCell="R1" activeCellId="1" sqref="Q1:Q1048576 R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="5"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="5"/>
+    <col min="32" max="32" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -13599,7 +15323,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -13715,7 +15439,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>283</v>
       </c>
@@ -13823,7 +15547,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>285</v>
       </c>
@@ -13931,7 +15655,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -14045,7 +15769,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>286</v>
       </c>
@@ -14151,7 +15875,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>287</v>
       </c>
@@ -14259,7 +15983,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>288</v>
       </c>
@@ -14375,7 +16099,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>289</v>
       </c>
@@ -14481,7 +16205,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>290</v>
       </c>
@@ -14609,7 +16333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CA63A3-2D83-409A-914A-429D59FDADBB}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
@@ -14617,9 +16341,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14771,7 +16495,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>469</v>
       </c>
@@ -14923,7 +16647,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>470</v>
       </c>
@@ -15045,7 +16769,7 @@
       <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>471</v>
       </c>
@@ -15179,7 +16903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B2F1A4-7EDD-4DB8-B350-335C4D4AE14D}">
   <dimension ref="A1:AL10"/>
   <sheetViews>
@@ -15187,15 +16911,15 @@
       <selection activeCell="R1" activeCellId="1" sqref="Q1:Q1048576 R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="5"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="5"/>
+    <col min="32" max="32" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -15311,7 +17035,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -15427,7 +17151,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>283</v>
       </c>
@@ -15535,7 +17259,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>285</v>
       </c>
@@ -15643,7 +17367,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -15757,7 +17481,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>286</v>
       </c>
@@ -15863,7 +17587,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>287</v>
       </c>
@@ -15971,7 +17695,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>288</v>
       </c>
@@ -16087,7 +17811,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>289</v>
       </c>
@@ -16193,7 +17917,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>290</v>
       </c>
@@ -16321,7 +18045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B039329D-D0EA-4F2B-809B-A38F1FF2373D}">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
@@ -16329,29 +18053,29 @@
       <selection activeCell="Q4" sqref="Q4:R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.5703125" customWidth="1"/>
-    <col min="42" max="42" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.54296875" customWidth="1"/>
+    <col min="42" max="42" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16482,7 +18206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -16613,7 +18337,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -16744,7 +18468,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -16875,7 +18599,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -17006,7 +18730,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -17137,7 +18861,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -17268,7 +18992,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -17399,7 +19123,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -17537,1321 +19261,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D574D87-F605-4C1E-B8AA-171D90DF25AC}">
-  <dimension ref="A1:AN11"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="5"/>
-    <col min="34" max="34" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2">
-        <v>5518975987</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2">
-        <v>123</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z2">
-        <v>26</v>
-      </c>
-      <c r="AA2">
-        <v>2010</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG2">
-        <v>275491</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="AK2" s="5">
-        <v>15</v>
-      </c>
-      <c r="AL2" s="5">
-        <v>15</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3">
-        <v>5518975987</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="1">
-        <v>123</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z3">
-        <v>26</v>
-      </c>
-      <c r="AA3">
-        <v>2014</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG3">
-        <v>316966</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="AK3" s="5">
-        <v>15</v>
-      </c>
-      <c r="AL3" s="5">
-        <v>15</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4">
-        <v>5518975987</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4">
-        <v>123</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z4">
-        <v>26</v>
-      </c>
-      <c r="AA4">
-        <v>2022</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG4">
-        <v>413910</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="AK4" s="5">
-        <v>15</v>
-      </c>
-      <c r="AL4" s="5">
-        <v>15</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5">
-        <v>5518975987</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5">
-        <v>123</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z5">
-        <v>26</v>
-      </c>
-      <c r="AA5">
-        <v>2017</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG5">
-        <v>152000</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>15</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>15</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6">
-        <v>5570662434</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6">
-        <v>219</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" t="s">
-        <v>126</v>
-      </c>
-      <c r="O6" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="5">
-        <v>57460</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6">
-        <v>123</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X6">
-        <v>12</v>
-      </c>
-      <c r="Y6">
-        <v>123</v>
-      </c>
-      <c r="Z6">
-        <v>27</v>
-      </c>
-      <c r="AA6">
-        <v>2023</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG6">
-        <v>781107</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI6" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7">
-        <v>5583270816</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7">
-        <v>220</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" s="5">
-        <v>57460</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T7">
-        <v>123</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X7">
-        <v>12</v>
-      </c>
-      <c r="Y7">
-        <v>123</v>
-      </c>
-      <c r="Z7">
-        <v>28</v>
-      </c>
-      <c r="AA7">
-        <v>2004</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG7">
-        <v>89830</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI7" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN7" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8">
-        <v>5583270817</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8">
-        <v>239</v>
-      </c>
-      <c r="K8" s="5">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>125</v>
-      </c>
-      <c r="M8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O8" t="s">
-        <v>127</v>
-      </c>
-      <c r="P8" s="5">
-        <v>57460</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8">
-        <v>123</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X8">
-        <v>12</v>
-      </c>
-      <c r="Y8">
-        <v>123</v>
-      </c>
-      <c r="Z8">
-        <v>26</v>
-      </c>
-      <c r="AA8">
-        <v>2023</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG8">
-        <v>822483</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI8" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="AJ8" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9">
-        <v>5570662439</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="I9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9">
-        <v>249</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" t="s">
-        <v>147</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" t="s">
-        <v>148</v>
-      </c>
-      <c r="O9" t="s">
-        <v>149</v>
-      </c>
-      <c r="P9" s="5">
-        <v>57460</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9">
-        <v>123</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X9">
-        <v>11</v>
-      </c>
-      <c r="Y9">
-        <v>321</v>
-      </c>
-      <c r="Z9">
-        <v>27</v>
-      </c>
-      <c r="AA9">
-        <v>2010</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>463</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>255700</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI9" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="AJ9" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN9" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10">
-        <v>5583270814</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10">
-        <v>219</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" t="s">
-        <v>126</v>
-      </c>
-      <c r="O10" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" s="5">
-        <v>57460</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T10">
-        <v>321</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X10">
-        <v>12</v>
-      </c>
-      <c r="Y10">
-        <v>321</v>
-      </c>
-      <c r="Z10">
-        <v>27</v>
-      </c>
-      <c r="AA10">
-        <v>2004</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG10">
-        <v>89830</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI10" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="AJ10" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN10" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11">
-        <v>5583270814</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="I11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11">
-        <v>219</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" t="s">
-        <v>126</v>
-      </c>
-      <c r="O11" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" s="5">
-        <v>57460</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="R11" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T11">
-        <v>123</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X11">
-        <v>12</v>
-      </c>
-      <c r="Y11">
-        <v>123</v>
-      </c>
-      <c r="Z11">
-        <v>27</v>
-      </c>
-      <c r="AA11">
-        <v>2006</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG11">
-        <v>360220</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI11" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="AJ11" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN11" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FA5D5C14-C573-469A-90B7-45EFDD35158B}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00296B02-7E7C-47DF-81A2-A8F24AB17A68}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{5DE82CC5-3E24-484E-B99E-A186F0A35C93}"/>
-    <hyperlink ref="H9" r:id="rId4" xr:uid="{F5784DEC-1E4F-48DD-8C9A-81731B347BA2}"/>
-    <hyperlink ref="H11" r:id="rId5" xr:uid="{156DD22C-E9F2-4C26-BF29-9E7E0B506A96}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
-</worksheet>
 </file>